--- a/nr-add-usage/ig/StructureDefinition-ror-organization-drop-zone.xlsx
+++ b/nr-add-usage/ig/StructureDefinition-ror-organization-drop-zone.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T07:59:17+00:00</t>
+    <t>2024-07-09T08:58:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
